--- a/biology/Biologie cellulaire et moléculaire/Système_de_sécrétion_de_type_IV/Système_de_sécrétion_de_type_IV.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Système_de_sécrétion_de_type_IV/Système_de_sécrétion_de_type_IV.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syst%C3%A8me_de_s%C3%A9cr%C3%A9tion_de_type_IV</t>
+          <t>Système_de_sécrétion_de_type_IV</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le système de sécrétion de type IV (aussi connu sous le nom T4SS) est un complexe protéique de sécrétion que l’on retrouve souvent chez les bactéries. 
 Il s’agit d’un moyen pour permettre le transport de protéines ou d’ADN à travers la membrane cellulaire.
 Le T4SS est un système utilisé pour la conjugaison bactérienne, pour l’échange de matériel génétique (par exemple de l’ADN plasmidique) avec le milieu extra-cellulaire et pour délivrer des protéines dans des cellules cibles.
-Les systèmes de sécrétion de type IV (SST4) sont divisés en quatre familles : IVA (regroupant les SST4-F et -P), IVB, IVGI et IVGP[1].
+Les systèmes de sécrétion de type IV (SST4) sont divisés en quatre familles : IVA (regroupant les SST4-F et -P), IVB, IVGI et IVGP.
 Le T4SS intervient par exemple pour l’insertion du plasmide dans les plantes avec Agrobacterium tumefaciens, la délivrance de toxine chez Bordetella pertussis et Legionella pneumophila ou encore avec le pilus sexuel F. 
 </t>
         </is>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syst%C3%A8me_de_s%C3%A9cr%C3%A9tion_de_type_IV</t>
+          <t>Système_de_sécrétion_de_type_IV</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le système de sécrétion de type IV est un complexe protéique présent chez les cellules procaryotes utilisé pour le transport d’ADN, de protéines et d’autres molécules depuis le cytoplasme vers le milieu extra-cellulaire. Le T4SS est lié à la machinerie de conjugaison procaryote. Le système de sécrétion de type IV est très varié. Il est présent dans bactérie Gram négative, Gram positive et les Archaea. 
 Les systèmes de sécrétion de type IV sont regroupés sur la base de similitudes structurelles et génétiques. Ils sont ainsi souvent liés de manière assez lointaine. 
@@ -539,7 +553,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syst%C3%A8me_de_s%C3%A9cr%C3%A9tion_de_type_IV</t>
+          <t>Système_de_sécrétion_de_type_IV</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -557,7 +571,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Actuellement, seule la structure de système de sécrétion de type IVA, qui sont présents dans les bactéries Gram négative, est bien décrite. Il est composé de 12 sous unités protéiques de VirB1 à VirB11 et de VirD4 dont les analogies existent dans tous les systèmes de type IVA. Les composants du système de sécrétion de type IV peuvent être séparés en trois groupes : l’échafaudage du canal de translocation, les ATPases et le pilus. 
 L’échafaudage du canal de translocation fait intervenir plusieurs protéines qui créent un canal entre l’espace extracellulaire et le cytoplasme à travers les membranes interne et externe de la bactérie. Ils contiennent VirB6 à VirB10. Le complexe central de l’échafaudage est composé de 14 copies de VirB7, VirB9 et VirB10 qui forment un canal cylindrique qui s’étend sur les deux membranes et relie le cytoplasme à l’espace extra-cellulaire. 
@@ -574,7 +590,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Syst%C3%A8me_de_s%C3%A9cr%C3%A9tion_de_type_IV</t>
+          <t>Système_de_sécrétion_de_type_IV</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -592,7 +608,9 @@
           <t>Mécanisme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En raison de la grande variété des systèmes de sécrétion de type quatre à la fois dans leur origine dans les fonctions, il est très difficile de formuler la mécanique du groupe dans son ensemble. 
 En général, une fois l’ADN emballé par le système de conjugaison, il est ensuite recruté par les ATPases et notamment la protéine de couplage VirD4. Il est ensuite transféré à travers le pilus. Chez A.tumefaciens, l’ADN traverse une chaîne enzymatique avant d’atteindre le pilus. L’ADN est ensuite recruté par VirD4 et VirB11, puis par les protéines transmembranaires (VirB6 et VirB8), déplacé vers VirB9, et enfin envoyé vers le Pilus (VirB2). 
